--- a/src/main/java/com/example/demo/helpers/templates/SemesterTemplate.xlsx
+++ b/src/main/java/com/example/demo/helpers/templates/SemesterTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALAL-\Desktop\backend-demo\src\main\java\com\example\demo\helpers\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE8F12-71DD-4215-8908-402ACA986A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D2D21-0B63-4DE7-96FE-F0C548A18CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t xml:space="preserve">кафедры «Программное обеспечение» о выполнении учебных поручений и результатов </t>
   </si>
   <si>
-    <t xml:space="preserve">Итого по кафедре ПО за 1-ый семестр 2013-2014 уч. год  = </t>
-  </si>
-  <si>
     <t>Учебные поручения</t>
   </si>
   <si>
@@ -105,13 +102,16 @@
     <t xml:space="preserve"> ИТОГО:     </t>
   </si>
   <si>
-    <t>экзаменационной сессии  за  1 семестр 2014/2015 учебного года</t>
-  </si>
-  <si>
     <t>Машиностроительный факультет (дневное отд.)</t>
   </si>
   <si>
     <t>Дог./Инд.план</t>
+  </si>
+  <si>
+    <t>экзаменационной сессии  за  {} семестр {} учебного года</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого по кафедре ПО за {} семестр {} уч. год  = </t>
   </si>
 </sst>
 </file>
@@ -609,9 +609,63 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -641,6 +695,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -650,79 +707,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="83" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,43 +1094,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1138,17 +1138,17 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="L5" s="5"/>
       <c r="R5" s="5"/>
     </row>
@@ -1158,38 +1158,38 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="97" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="93" t="s">
-        <v>27</v>
+      <c r="J7" s="60" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1202,8 +1202,8 @@
       <c r="H8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="98"/>
-      <c r="J8" s="94"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
@@ -1218,12 +1218,12 @@
       <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="7">
         <f>SUM(E9:E9)</f>
         <v>0</v>
@@ -1260,17 +1260,17 @@
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:18" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="A12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
@@ -1278,38 +1278,38 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" s="34" customFormat="1" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83" t="s">
+      <c r="H14" s="70"/>
+      <c r="I14" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="93" t="s">
-        <v>27</v>
+      <c r="J14" s="60" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
@@ -1322,8 +1322,8 @@
       <c r="H15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="91"/>
-      <c r="J15" s="94"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="61"/>
       <c r="L15" s="5"/>
       <c r="R15" s="5"/>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="7">
         <f>SUM(E16:E16)</f>
         <v>0</v>
@@ -1392,8 +1392,8 @@
       <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="92"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
       <c r="L20" s="5"/>
       <c r="R20" s="5"/>
     </row>
@@ -1405,40 +1405,40 @@
       <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="83" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="93" t="s">
-        <v>27</v>
+      <c r="J22" s="60" t="s">
+        <v>25</v>
       </c>
       <c r="L22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="12" t="s">
         <v>2</v>
       </c>
@@ -1451,8 +1451,8 @@
       <c r="H23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="94"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="61"/>
       <c r="L23" s="5"/>
       <c r="R23" s="5"/>
     </row>
@@ -1469,12 +1469,12 @@
       <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="11">
         <f>SUM(E24:E24)</f>
         <v>0</v>
@@ -1506,8 +1506,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
       <c r="L27" s="5"/>
       <c r="R27" s="5"/>
     </row>
@@ -1528,40 +1528,40 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="65" t="s">
+      <c r="F30" s="98"/>
+      <c r="G30" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67" t="s">
+      <c r="H30" s="84"/>
+      <c r="I30" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="93" t="s">
-        <v>27</v>
+      <c r="J30" s="60" t="s">
+        <v>25</v>
       </c>
       <c r="L30" s="5"/>
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="25" t="s">
         <v>2</v>
       </c>
@@ -1574,8 +1574,8 @@
       <c r="H31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="94"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="61"/>
       <c r="L31" s="5"/>
       <c r="R31" s="5"/>
     </row>
@@ -1592,12 +1592,12 @@
       <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
       <c r="E33" s="31">
         <f>SUM(E32:E32)</f>
         <v>0</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="35" spans="1:10" s="35" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
+      <c r="B35" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="42">
         <f>SUM(E10,E25,E33)</f>
         <v>0</v>
@@ -1661,14 +1661,14 @@
     <row r="37" spans="1:10" s="35" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="41"/>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
@@ -1676,12 +1676,12 @@
     <row r="38" spans="1:10" s="35" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="41"/>
-      <c r="C38" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="93"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
@@ -1689,12 +1689,12 @@
     <row r="39" spans="1:10" s="35" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
-      <c r="C39" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="C39" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="94"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
@@ -1702,15 +1702,15 @@
     <row r="40" spans="1:10" s="35" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="61">
+      <c r="C40" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="90">
         <f>SUM(E38:F39)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="90"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
@@ -1759,20 +1759,20 @@
       <c r="I44" s="46"/>
     </row>
     <row r="45" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="63"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
       <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1786,12 +1786,52 @@
       <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:3" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J22:J23"/>
@@ -1808,46 +1848,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.31496062992125984" top="0.98425196850393704" bottom="0.3125" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
